--- a/cp-questionnaire-usecontext/ig/ValueSet-code-region-territorial-division-ror-valueset.xlsx
+++ b/cp-questionnaire-usecontext/ig/ValueSet-code-region-territorial-division-ror-valueset.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-22T14:59:46+00:00</t>
+    <t>2025-01-22T15:51:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-questionnaire-usecontext/ig/ValueSet-code-region-territorial-division-ror-valueset.xlsx
+++ b/cp-questionnaire-usecontext/ig/ValueSet-code-region-territorial-division-ror-valueset.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-22T15:51:58+00:00</t>
+    <t>2025-01-22T16:10:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-questionnaire-usecontext/ig/ValueSet-code-region-territorial-division-ror-valueset.xlsx
+++ b/cp-questionnaire-usecontext/ig/ValueSet-code-region-territorial-division-ror-valueset.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-22T16:10:55+00:00</t>
+    <t>2025-01-23T09:02:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-questionnaire-usecontext/ig/ValueSet-code-region-territorial-division-ror-valueset.xlsx
+++ b/cp-questionnaire-usecontext/ig/ValueSet-code-region-territorial-division-ror-valueset.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-23T09:02:53+00:00</t>
+    <t>2025-01-23T18:05:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-questionnaire-usecontext/ig/ValueSet-code-region-territorial-division-ror-valueset.xlsx
+++ b/cp-questionnaire-usecontext/ig/ValueSet-code-region-territorial-division-ror-valueset.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-23T18:05:37+00:00</t>
+    <t>2025-01-24T10:49:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-questionnaire-usecontext/ig/ValueSet-code-region-territorial-division-ror-valueset.xlsx
+++ b/cp-questionnaire-usecontext/ig/ValueSet-code-region-territorial-division-ror-valueset.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-24T10:49:55+00:00</t>
+    <t>2025-01-24T11:25:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-questionnaire-usecontext/ig/ValueSet-code-region-territorial-division-ror-valueset.xlsx
+++ b/cp-questionnaire-usecontext/ig/ValueSet-code-region-territorial-division-ror-valueset.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-24T11:25:40+00:00</t>
+    <t>2025-01-24T11:45:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-questionnaire-usecontext/ig/ValueSet-code-region-territorial-division-ror-valueset.xlsx
+++ b/cp-questionnaire-usecontext/ig/ValueSet-code-region-territorial-division-ror-valueset.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Property</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-24T11:45:47+00:00</t>
+    <t>2025-01-24T13:24:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>ValueSet regroupant des valuesets du NOS pour le code de la division territoriale</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -346,26 +349,28 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -387,12 +392,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -414,12 +419,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -441,12 +446,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -468,12 +473,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -495,12 +500,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/cp-questionnaire-usecontext/ig/ValueSet-code-region-territorial-division-ror-valueset.xlsx
+++ b/cp-questionnaire-usecontext/ig/ValueSet-code-region-territorial-division-ror-valueset.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Property</t>
   </si>
@@ -58,10 +58,13 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-24T13:24:43+00:00</t>
+    <t>2025-01-24T13:58:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -311,66 +314,68 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -392,12 +397,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -419,12 +424,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -446,12 +451,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -473,12 +478,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -500,12 +505,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/cp-questionnaire-usecontext/ig/ValueSet-code-region-territorial-division-ror-valueset.xlsx
+++ b/cp-questionnaire-usecontext/ig/ValueSet-code-region-territorial-division-ror-valueset.xlsx
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-24T13:58:14+00:00</t>
+    <t>2025-01-24T14:57:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-questionnaire-usecontext/ig/ValueSet-code-region-territorial-division-ror-valueset.xlsx
+++ b/cp-questionnaire-usecontext/ig/ValueSet-code-region-territorial-division-ror-valueset.xlsx
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-24T14:57:39+00:00</t>
+    <t>2025-01-24T15:04:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-questionnaire-usecontext/ig/ValueSet-code-region-territorial-division-ror-valueset.xlsx
+++ b/cp-questionnaire-usecontext/ig/ValueSet-code-region-territorial-division-ror-valueset.xlsx
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-24T15:04:45+00:00</t>
+    <t>2025-01-24T16:06:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-questionnaire-usecontext/ig/ValueSet-code-region-territorial-division-ror-valueset.xlsx
+++ b/cp-questionnaire-usecontext/ig/ValueSet-code-region-territorial-division-ror-valueset.xlsx
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-24T16:06:18+00:00</t>
+    <t>2025-01-24T16:30:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-questionnaire-usecontext/ig/ValueSet-code-region-territorial-division-ror-valueset.xlsx
+++ b/cp-questionnaire-usecontext/ig/ValueSet-code-region-territorial-division-ror-valueset.xlsx
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-24T16:30:15+00:00</t>
+    <t>2025-01-24T16:46:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-questionnaire-usecontext/ig/ValueSet-code-region-territorial-division-ror-valueset.xlsx
+++ b/cp-questionnaire-usecontext/ig/ValueSet-code-region-territorial-division-ror-valueset.xlsx
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-24T16:46:59+00:00</t>
+    <t>2025-01-24T17:25:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
